--- a/data/Map112.xlsx
+++ b/data/Map112.xlsx
@@ -780,7 +780,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A136"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,682 +788,685 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>135</v>
       </c>

--- a/data/Map112.xlsx
+++ b/data/Map112.xlsx
@@ -780,7 +780,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,32 +788,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -821,652 +821,670 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>

--- a/data/Map112.xlsx
+++ b/data/Map112.xlsx
@@ -780,7 +780,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,704 +788,1091 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="D56" t="s">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="D58" t="s">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="B135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>

--- a/data/Map112.xlsx
+++ b/data/Map112.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABB3B5-5AEA-4AB2-AA79-91505D63BF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
   <si>
     <t>自動実行</t>
   </si>
@@ -442,19 +448,86 @@
   </si>
   <si>
     <t>EV119</t>
+  </si>
+  <si>
+    <t>The railing is broken here...</t>
+  </si>
+  <si>
+    <t>Use the rope</t>
+  </si>
+  <si>
+    <t>Do nothing</t>
+  </si>
+  <si>
+    <t>Alright... You can escape from here...</t>
+  </si>
+  <si>
+    <t>Jump off</t>
+  </si>
+  <si>
+    <t>No, it's way too high up.
+You would definitely injure yourself.
+If only you had a rope or something...</t>
+  </si>
+  <si>
+    <t>No good...
+You already used the rope to make a hookshot...
+The hookshot won't be able to reach...</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Good afternoon.
+I'm Santa, the white cat.
+It's unusual to see a human around here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Why are you so surprised?
+Cats can talk too.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;By the way, do you know Ako?
+She was late coming home, so I got worried and
+came to check on her. I found all the exits sealed off.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Escape game, hmm.
+So you're both locked in here.
+That's a bit of a problem.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;...That reminds me.
+I picked up a key down there a little while ago.
+I don't know what it's for.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Well, best of luck escaping.
+If you manage to get out safe, don't wait up for me.
+Please give Ako my regards.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Ah, since you're trying to escape, I wouldn't advise
+jumping from here. I'm a cat, so I have no problem, but...
+Well... How is your calcium intake?</t>
+  </si>
+  <si>
+    <t>Some kind of grate... It's too heavy to open.</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Stripes Make a Masochist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -465,28 +538,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -776,19 +861,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -804,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -812,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -820,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -828,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -836,63 +923,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -900,63 +1008,84 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -964,39 +1093,51 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1004,7 +1145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1020,7 +1161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1036,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1044,7 +1185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1052,7 +1193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1060,7 +1201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1068,7 +1209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1076,7 +1217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1084,7 +1225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1100,7 +1241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1108,7 +1249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1116,7 +1257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1132,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1140,7 +1281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1156,7 +1297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1164,7 +1305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1172,7 +1313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1180,7 +1321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1188,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1196,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1204,7 +1345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1212,7 +1353,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1220,7 +1361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1228,7 +1369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1236,7 +1377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1244,7 +1385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1252,7 +1393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1260,7 +1401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1268,7 +1409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1276,7 +1417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1284,7 +1425,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1292,7 +1433,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1300,7 +1441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1308,7 +1449,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1316,7 +1457,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1324,7 +1465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1332,7 +1473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1340,7 +1481,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1348,7 +1489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1356,7 +1497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1364,7 +1505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1372,7 +1513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1380,7 +1521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1388,7 +1529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1396,7 +1537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1404,7 +1545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1412,7 +1553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1420,7 +1561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1428,7 +1569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1436,7 +1577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1444,7 +1585,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1452,7 +1593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1460,7 +1601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1468,7 +1609,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1476,7 +1617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1484,7 +1625,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1492,7 +1633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1500,7 +1641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1508,7 +1649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1516,7 +1657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1524,7 +1665,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1532,7 +1673,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1540,7 +1681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1548,7 +1689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1556,7 +1697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1564,7 +1705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1572,7 +1713,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1580,7 +1721,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -1588,7 +1729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -1596,7 +1737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -1604,7 +1745,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1612,7 +1753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1620,7 +1761,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -1628,7 +1769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -1636,7 +1777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1644,7 +1785,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -1652,7 +1793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -1660,7 +1801,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -1668,7 +1809,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -1676,7 +1817,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -1684,7 +1825,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -1692,7 +1833,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -1700,7 +1841,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -1708,7 +1849,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -1716,7 +1857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -1724,7 +1865,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -1732,7 +1873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -1740,7 +1881,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -1748,7 +1889,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -1756,7 +1897,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -1764,7 +1905,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -1772,7 +1913,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -1780,7 +1921,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -1788,7 +1929,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -1796,7 +1937,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -1804,7 +1945,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -1812,7 +1953,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -1820,7 +1961,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -1828,7 +1969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -1836,7 +1977,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -1844,7 +1985,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -1852,7 +1993,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -1860,7 +2001,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -1868,7 +2009,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -1877,17 +2018,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>